--- a/data.xlsx
+++ b/data.xlsx
@@ -31,13 +31,13 @@
     <t>region</t>
   </si>
   <si>
-    <t>sdfgdf gdf</t>
+    <t>dfgdfgdfg</t>
   </si>
   <si>
     <t>+998950657313</t>
   </si>
   <si>
-    <t>Toshkent</t>
+    <t>Qashqadaryo</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1025888307</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -31,13 +31,19 @@
     <t>region</t>
   </si>
   <si>
-    <t>dfgdfgdfg</t>
+    <t>sdfsdfs sdf</t>
   </si>
   <si>
     <t>+998950657313</t>
   </si>
   <si>
-    <t>Qashqadaryo</t>
+    <t>Andijon</t>
+  </si>
+  <si>
+    <t>Abdurahmon</t>
+  </si>
+  <si>
+    <t>998916913177</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,7 +400,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1025888307</v>
@@ -406,6 +412,23 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>787151163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -31,19 +31,55 @@
     <t>region</t>
   </si>
   <si>
-    <t>sdfsdfs sdf</t>
+    <t>js</t>
+  </si>
+  <si>
+    <t>998998951313</t>
+  </si>
+  <si>
+    <t>Xorazm</t>
+  </si>
+  <si>
+    <t>Ismoil Safarov</t>
+  </si>
+  <si>
+    <t>998998135140</t>
+  </si>
+  <si>
+    <t>Navoiy</t>
+  </si>
+  <si>
+    <t>Umidjon Ortiqov</t>
+  </si>
+  <si>
+    <t>998901323838</t>
+  </si>
+  <si>
+    <t>Andijon</t>
+  </si>
+  <si>
+    <t>dg</t>
   </si>
   <si>
     <t>+998950657313</t>
   </si>
   <si>
-    <t>Andijon</t>
-  </si>
-  <si>
-    <t>Abdurahmon</t>
-  </si>
-  <si>
-    <t>998916913177</t>
+    <t>Mirhojiddin Mamadaliyev</t>
+  </si>
+  <si>
+    <t>998905665711</t>
+  </si>
+  <si>
+    <t>Farg'ona</t>
+  </si>
+  <si>
+    <t>Islom Ziyadullayev</t>
+  </si>
+  <si>
+    <t>+998944675699</t>
+  </si>
+  <si>
+    <t>Toshkent shahri</t>
   </si>
 </sst>
 </file>
@@ -375,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,10 +436,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <v>1025888307</v>
+        <v>582593636</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -417,10 +453,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>787151163</v>
+        <v>536326196</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -429,7 +465,75 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>429121485</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>1025888307</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>691348344</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>620148455</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -31,19 +31,73 @@
     <t>region</t>
   </si>
   <si>
-    <t>sdfsdfs sdf</t>
+    <t>reg_date</t>
+  </si>
+  <si>
+    <t>Mirjalol Odinayev Xurram o'g'li</t>
+  </si>
+  <si>
+    <t>998909046303</t>
+  </si>
+  <si>
+    <t>Qashqadaryo</t>
+  </si>
+  <si>
+    <t>2022-06-11 10:44:44.909682+00:00</t>
+  </si>
+  <si>
+    <t>Habibulloh Salimov</t>
+  </si>
+  <si>
+    <t>998333907313</t>
+  </si>
+  <si>
+    <t>Toshkent viloyati</t>
+  </si>
+  <si>
+    <t>Umidjon Ortiqov</t>
+  </si>
+  <si>
+    <t>998901323838</t>
+  </si>
+  <si>
+    <t>Toshkent shahri</t>
+  </si>
+  <si>
+    <t>Qayimov Jamshid</t>
+  </si>
+  <si>
+    <t>+998900039917</t>
+  </si>
+  <si>
+    <t>Buxoro</t>
+  </si>
+  <si>
+    <t>Abdumalikov Javoxir</t>
+  </si>
+  <si>
+    <t>998998307622</t>
+  </si>
+  <si>
+    <t>maxmud namozov</t>
+  </si>
+  <si>
+    <t>998930896131</t>
+  </si>
+  <si>
+    <t>Navoiy</t>
+  </si>
+  <si>
+    <t>Ismoil Safarov</t>
+  </si>
+  <si>
+    <t>998998135140</t>
+  </si>
+  <si>
+    <t>Shukurullox Komiljonov</t>
   </si>
   <si>
     <t>+998950657313</t>
-  </si>
-  <si>
-    <t>Andijon</t>
-  </si>
-  <si>
-    <t>Abdurahmon</t>
-  </si>
-  <si>
-    <t>998916913177</t>
   </si>
 </sst>
 </file>
@@ -375,13 +429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,39 +451,168 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>755459323</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1566043082</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>429121485</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>1739524498</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>1078042121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>1068137253</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>536326196</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>27</v>
+      </c>
+      <c r="B9">
         <v>1025888307</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>787151163</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -31,6 +31,9 @@
     <t>region</t>
   </si>
   <si>
+    <t>reg_date</t>
+  </si>
+  <si>
     <t>js</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>Xorazm</t>
   </si>
   <si>
+    <t>2022-06-11 10:37:35.466072+00:00</t>
+  </si>
+  <si>
     <t>Ismoil Safarov</t>
   </si>
   <si>
@@ -80,6 +86,327 @@
   </si>
   <si>
     <t>Toshkent shahri</t>
+  </si>
+  <si>
+    <t>Anora Fayziyeva</t>
+  </si>
+  <si>
+    <t>998907176887</t>
+  </si>
+  <si>
+    <t>Buxoro</t>
+  </si>
+  <si>
+    <t>2022-06-11 12:41:45.937518+00:00</t>
+  </si>
+  <si>
+    <t>+998907176887</t>
+  </si>
+  <si>
+    <t>2022-06-11 14:02:27.015286+00:00</t>
+  </si>
+  <si>
+    <t>Aydos Duysenbaev</t>
+  </si>
+  <si>
+    <t>998933717540</t>
+  </si>
+  <si>
+    <t>Qoraqalpog'iston Respublikasi</t>
+  </si>
+  <si>
+    <t>2022-06-11 19:36:38.192686+00:00</t>
+  </si>
+  <si>
+    <t>firdavsiy abdullajonov</t>
+  </si>
+  <si>
+    <t>998998931903</t>
+  </si>
+  <si>
+    <t>Namangan</t>
+  </si>
+  <si>
+    <t>2022-06-12 01:57:17.663618+00:00</t>
+  </si>
+  <si>
+    <t>Asadbek Abdujabborov</t>
+  </si>
+  <si>
+    <t>998941777235</t>
+  </si>
+  <si>
+    <t>2022-06-12 02:32:28.430459+00:00</t>
+  </si>
+  <si>
+    <t>Mohinur Qo'ziboyeva</t>
+  </si>
+  <si>
+    <t>+998999686642</t>
+  </si>
+  <si>
+    <t>2022-06-12 03:39:53.968784+00:00</t>
+  </si>
+  <si>
+    <t>Ilxom Nazarov</t>
+  </si>
+  <si>
+    <t>998881299901</t>
+  </si>
+  <si>
+    <t>Jizzax</t>
+  </si>
+  <si>
+    <t>2022-06-12 03:40:31.184200+00:00</t>
+  </si>
+  <si>
+    <t>Hamdam Qobulov</t>
+  </si>
+  <si>
+    <t>998993170030</t>
+  </si>
+  <si>
+    <t>2022-06-12 04:48:20.711168+00:00</t>
+  </si>
+  <si>
+    <t>avazbek</t>
+  </si>
+  <si>
+    <t>+998913392949</t>
+  </si>
+  <si>
+    <t>2022-06-12 05:42:42.830127+00:00</t>
+  </si>
+  <si>
+    <t>Abduvali Shomuratov</t>
+  </si>
+  <si>
+    <t>+998944647484</t>
+  </si>
+  <si>
+    <t>Surxondaryo</t>
+  </si>
+  <si>
+    <t>2022-06-12 05:51:49.950101+00:00</t>
+  </si>
+  <si>
+    <t>Umidjon Abdullayev</t>
+  </si>
+  <si>
+    <t>+998979096323</t>
+  </si>
+  <si>
+    <t>Sirdaryo</t>
+  </si>
+  <si>
+    <t>2022-06-12 06:46:56.829960+00:00</t>
+  </si>
+  <si>
+    <t>Raxmatullaeva Hulkar</t>
+  </si>
+  <si>
+    <t>998990791315</t>
+  </si>
+  <si>
+    <t>Qashqadaryo</t>
+  </si>
+  <si>
+    <t>2022-06-12 08:15:27.291987+00:00</t>
+  </si>
+  <si>
+    <t>Abdulloh Yuldashev</t>
+  </si>
+  <si>
+    <t>998902001513</t>
+  </si>
+  <si>
+    <t>2022-06-12 08:28:22.228818+00:00</t>
+  </si>
+  <si>
+    <t>Buriyev Eldor</t>
+  </si>
+  <si>
+    <t>998909218746</t>
+  </si>
+  <si>
+    <t>2022-06-12 09:33:40.142080+00:00</t>
+  </si>
+  <si>
+    <t>Kalibri education</t>
+  </si>
+  <si>
+    <t>998974220028</t>
+  </si>
+  <si>
+    <t>2022-06-12 10:33:08.632130+00:00</t>
+  </si>
+  <si>
+    <t>Imomova Mokhizoda</t>
+  </si>
+  <si>
+    <t>998900158502</t>
+  </si>
+  <si>
+    <t>2022-06-12 13:42:27.523082+00:00</t>
+  </si>
+  <si>
+    <t>Karimboy Yuldoshov</t>
+  </si>
+  <si>
+    <t>998944854969</t>
+  </si>
+  <si>
+    <t>2022-06-12 14:33:15.757913+00:00</t>
+  </si>
+  <si>
+    <t>Yuldasheva Yulduz</t>
+  </si>
+  <si>
+    <t>998914039668</t>
+  </si>
+  <si>
+    <t>2022-06-12 15:00:50.574051+00:00</t>
+  </si>
+  <si>
+    <t>Sardor Narimanov</t>
+  </si>
+  <si>
+    <t>+998944127070</t>
+  </si>
+  <si>
+    <t>Toshkent viloyati</t>
+  </si>
+  <si>
+    <t>2022-06-12 15:02:08.584404+00:00</t>
+  </si>
+  <si>
+    <t>Doniyor Farhodov</t>
+  </si>
+  <si>
+    <t>+998931386123</t>
+  </si>
+  <si>
+    <t>2022-06-13 09:33:41.850442+00:00</t>
+  </si>
+  <si>
+    <t>Shonazar Khasanov</t>
+  </si>
+  <si>
+    <t>998330344000</t>
+  </si>
+  <si>
+    <t>2022-06-13 12:53:03.896279+00:00</t>
+  </si>
+  <si>
+    <t>Mirayub Giyosov</t>
+  </si>
+  <si>
+    <t>998977053105</t>
+  </si>
+  <si>
+    <t>2022-06-13 13:05:04.966787+00:00</t>
+  </si>
+  <si>
+    <t>Sobirov Abdubori Abduqodirovich</t>
+  </si>
+  <si>
+    <t>998903728278</t>
+  </si>
+  <si>
+    <t>2022-06-13 13:40:12.395763+00:00</t>
+  </si>
+  <si>
+    <t>Sayfiyev Ramziddin</t>
+  </si>
+  <si>
+    <t>998935589503</t>
+  </si>
+  <si>
+    <t>2022-06-14 11:11:58.477155+00:00</t>
+  </si>
+  <si>
+    <t>Жураев Хамробек</t>
+  </si>
+  <si>
+    <t>998908806880</t>
+  </si>
+  <si>
+    <t>2022-06-14 14:06:30.213676+00:00</t>
+  </si>
+  <si>
+    <t>Shoxjaxon narzikulov</t>
+  </si>
+  <si>
+    <t>998979109007</t>
+  </si>
+  <si>
+    <t>Samarqand</t>
+  </si>
+  <si>
+    <t>2022-06-14 16:33:23.626611+00:00</t>
+  </si>
+  <si>
+    <t>Sardor</t>
+  </si>
+  <si>
+    <t>+998935944073</t>
+  </si>
+  <si>
+    <t>2022-06-14 17:57:20.036379+00:00</t>
+  </si>
+  <si>
+    <t>Rikhsiddinov Yodgor</t>
+  </si>
+  <si>
+    <t>998332713417</t>
+  </si>
+  <si>
+    <t>2022-06-15 17:34:51.503763+00:00</t>
+  </si>
+  <si>
+    <t>Yusufov Anvar</t>
+  </si>
+  <si>
+    <t>998885310299</t>
+  </si>
+  <si>
+    <t>2022-06-15 17:54:03.507286+00:00</t>
+  </si>
+  <si>
+    <t>Хожиматова севанна</t>
+  </si>
+  <si>
+    <t>998935830012</t>
+  </si>
+  <si>
+    <t>2022-06-16 09:44:48.882101+00:00</t>
+  </si>
+  <si>
+    <t>Ахмедова Мафтуна</t>
+  </si>
+  <si>
+    <t>998995939025</t>
+  </si>
+  <si>
+    <t>2022-06-20 05:43:03.524417+00:00</t>
+  </si>
+  <si>
+    <t>Habibulloh Salimov</t>
+  </si>
+  <si>
+    <t>+998333907313</t>
+  </si>
+  <si>
+    <t>2022-06-24 23:46:05.957012+00:00</t>
+  </si>
+  <si>
+    <t>Nematjon Shahobiddinov</t>
+  </si>
+  <si>
+    <t>998934960624</t>
+  </si>
+  <si>
+    <t>2022-07-02 10:26:55.854474+00:00</t>
   </si>
 </sst>
 </file>
@@ -411,13 +738,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +760,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>33</v>
       </c>
@@ -442,16 +772,19 @@
         <v>582593636</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>34</v>
       </c>
@@ -459,16 +792,19 @@
         <v>536326196</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>35</v>
       </c>
@@ -476,16 +812,19 @@
         <v>429121485</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>36</v>
       </c>
@@ -493,16 +832,19 @@
         <v>1025888307</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>37</v>
       </c>
@@ -510,16 +852,19 @@
         <v>691348344</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>38</v>
       </c>
@@ -527,13 +872,676 @@
         <v>620148455</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>1635569047</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>1275202876</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>1944466986</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>916582906</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>1038499310</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>1021897530</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>1784308662</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>5029051566</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>1999806903</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>1353906775</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>5163468879</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>5461728760</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>1707554893</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>841998766</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>1101058609</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>1298392207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>5349232356</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <v>1410396938</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>553050939</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>58</v>
+      </c>
+      <c r="B27">
+        <v>1987928063</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>59</v>
+      </c>
+      <c r="B28">
+        <v>1323666637</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>514528684</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>61</v>
+      </c>
+      <c r="B30">
+        <v>1958534085</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>62</v>
+      </c>
+      <c r="B31">
+        <v>646912598</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>63</v>
+      </c>
+      <c r="B32">
+        <v>1916769209</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>64</v>
+      </c>
+      <c r="B33">
+        <v>1551435907</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>65</v>
+      </c>
+      <c r="B34">
+        <v>1930332026</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>66</v>
+      </c>
+      <c r="B35">
+        <v>1434627873</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>67</v>
+      </c>
+      <c r="B36">
+        <v>2019568970</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>68</v>
+      </c>
+      <c r="B37">
+        <v>5254275298</v>
+      </c>
+      <c r="C37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>69</v>
+      </c>
+      <c r="B38">
+        <v>1545334373</v>
+      </c>
+      <c r="C38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>70</v>
+      </c>
+      <c r="B39">
+        <v>1566043082</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>71</v>
+      </c>
+      <c r="B40">
+        <v>561773609</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="138">
   <si>
     <t>ID</t>
   </si>
@@ -64,349 +64,370 @@
     <t>Andijon</t>
   </si>
   <si>
-    <t>dg</t>
+    <t>Mirhojiddin Mamadaliyev</t>
+  </si>
+  <si>
+    <t>998905665711</t>
+  </si>
+  <si>
+    <t>Farg'ona</t>
+  </si>
+  <si>
+    <t>Islom Ziyadullayev</t>
+  </si>
+  <si>
+    <t>+998944675699</t>
+  </si>
+  <si>
+    <t>Toshkent shahri</t>
+  </si>
+  <si>
+    <t>Anora Fayziyeva</t>
+  </si>
+  <si>
+    <t>998907176887</t>
+  </si>
+  <si>
+    <t>Buxoro</t>
+  </si>
+  <si>
+    <t>2022-06-11 12:41:45.937518+00:00</t>
+  </si>
+  <si>
+    <t>+998907176887</t>
+  </si>
+  <si>
+    <t>2022-06-11 14:02:27.015286+00:00</t>
+  </si>
+  <si>
+    <t>Aydos Duysenbaev</t>
+  </si>
+  <si>
+    <t>998933717540</t>
+  </si>
+  <si>
+    <t>Qoraqalpog'iston Respublikasi</t>
+  </si>
+  <si>
+    <t>2022-06-11 19:36:38.192686+00:00</t>
+  </si>
+  <si>
+    <t>firdavsiy abdullajonov</t>
+  </si>
+  <si>
+    <t>998998931903</t>
+  </si>
+  <si>
+    <t>Namangan</t>
+  </si>
+  <si>
+    <t>2022-06-12 01:57:17.663618+00:00</t>
+  </si>
+  <si>
+    <t>Asadbek Abdujabborov</t>
+  </si>
+  <si>
+    <t>998941777235</t>
+  </si>
+  <si>
+    <t>2022-06-12 02:32:28.430459+00:00</t>
+  </si>
+  <si>
+    <t>Mohinur Qo'ziboyeva</t>
+  </si>
+  <si>
+    <t>+998999686642</t>
+  </si>
+  <si>
+    <t>2022-06-12 03:39:53.968784+00:00</t>
+  </si>
+  <si>
+    <t>Ilxom Nazarov</t>
+  </si>
+  <si>
+    <t>998881299901</t>
+  </si>
+  <si>
+    <t>Jizzax</t>
+  </si>
+  <si>
+    <t>2022-06-12 03:40:31.184200+00:00</t>
+  </si>
+  <si>
+    <t>Hamdam Qobulov</t>
+  </si>
+  <si>
+    <t>998993170030</t>
+  </si>
+  <si>
+    <t>2022-06-12 04:48:20.711168+00:00</t>
+  </si>
+  <si>
+    <t>avazbek</t>
+  </si>
+  <si>
+    <t>+998913392949</t>
+  </si>
+  <si>
+    <t>2022-06-12 05:42:42.830127+00:00</t>
+  </si>
+  <si>
+    <t>Abduvali Shomuratov</t>
+  </si>
+  <si>
+    <t>+998944647484</t>
+  </si>
+  <si>
+    <t>Surxondaryo</t>
+  </si>
+  <si>
+    <t>2022-06-12 05:51:49.950101+00:00</t>
+  </si>
+  <si>
+    <t>Umidjon Abdullayev</t>
+  </si>
+  <si>
+    <t>+998979096323</t>
+  </si>
+  <si>
+    <t>Sirdaryo</t>
+  </si>
+  <si>
+    <t>2022-06-12 06:46:56.829960+00:00</t>
+  </si>
+  <si>
+    <t>Raxmatullaeva Hulkar</t>
+  </si>
+  <si>
+    <t>998990791315</t>
+  </si>
+  <si>
+    <t>Qashqadaryo</t>
+  </si>
+  <si>
+    <t>2022-06-12 08:15:27.291987+00:00</t>
+  </si>
+  <si>
+    <t>Abdulloh Yuldashev</t>
+  </si>
+  <si>
+    <t>998902001513</t>
+  </si>
+  <si>
+    <t>2022-06-12 08:28:22.228818+00:00</t>
+  </si>
+  <si>
+    <t>Buriyev Eldor</t>
+  </si>
+  <si>
+    <t>998909218746</t>
+  </si>
+  <si>
+    <t>2022-06-12 09:33:40.142080+00:00</t>
+  </si>
+  <si>
+    <t>Kalibri education</t>
+  </si>
+  <si>
+    <t>998974220028</t>
+  </si>
+  <si>
+    <t>2022-06-12 10:33:08.632130+00:00</t>
+  </si>
+  <si>
+    <t>Imomova Mokhizoda</t>
+  </si>
+  <si>
+    <t>998900158502</t>
+  </si>
+  <si>
+    <t>2022-06-12 13:42:27.523082+00:00</t>
+  </si>
+  <si>
+    <t>Karimboy Yuldoshov</t>
+  </si>
+  <si>
+    <t>998944854969</t>
+  </si>
+  <si>
+    <t>2022-06-12 14:33:15.757913+00:00</t>
+  </si>
+  <si>
+    <t>Yuldasheva Yulduz</t>
+  </si>
+  <si>
+    <t>998914039668</t>
+  </si>
+  <si>
+    <t>2022-06-12 15:00:50.574051+00:00</t>
+  </si>
+  <si>
+    <t>Sardor Narimanov</t>
+  </si>
+  <si>
+    <t>+998944127070</t>
+  </si>
+  <si>
+    <t>Toshkent viloyati</t>
+  </si>
+  <si>
+    <t>2022-06-12 15:02:08.584404+00:00</t>
+  </si>
+  <si>
+    <t>Doniyor Farhodov</t>
+  </si>
+  <si>
+    <t>+998931386123</t>
+  </si>
+  <si>
+    <t>2022-06-13 09:33:41.850442+00:00</t>
+  </si>
+  <si>
+    <t>Shonazar Khasanov</t>
+  </si>
+  <si>
+    <t>998330344000</t>
+  </si>
+  <si>
+    <t>2022-06-13 12:53:03.896279+00:00</t>
+  </si>
+  <si>
+    <t>Mirayub Giyosov</t>
+  </si>
+  <si>
+    <t>998977053105</t>
+  </si>
+  <si>
+    <t>2022-06-13 13:05:04.966787+00:00</t>
+  </si>
+  <si>
+    <t>Sobirov Abdubori Abduqodirovich</t>
+  </si>
+  <si>
+    <t>998903728278</t>
+  </si>
+  <si>
+    <t>2022-06-13 13:40:12.395763+00:00</t>
+  </si>
+  <si>
+    <t>Sayfiyev Ramziddin</t>
+  </si>
+  <si>
+    <t>998935589503</t>
+  </si>
+  <si>
+    <t>2022-06-14 11:11:58.477155+00:00</t>
+  </si>
+  <si>
+    <t>Жураев Хамробек</t>
+  </si>
+  <si>
+    <t>998908806880</t>
+  </si>
+  <si>
+    <t>2022-06-14 14:06:30.213676+00:00</t>
+  </si>
+  <si>
+    <t>Shoxjaxon narzikulov</t>
+  </si>
+  <si>
+    <t>998979109007</t>
+  </si>
+  <si>
+    <t>Samarqand</t>
+  </si>
+  <si>
+    <t>2022-06-14 16:33:23.626611+00:00</t>
+  </si>
+  <si>
+    <t>Sardor</t>
+  </si>
+  <si>
+    <t>+998935944073</t>
+  </si>
+  <si>
+    <t>2022-06-14 17:57:20.036379+00:00</t>
+  </si>
+  <si>
+    <t>Rikhsiddinov Yodgor</t>
+  </si>
+  <si>
+    <t>998332713417</t>
+  </si>
+  <si>
+    <t>2022-06-15 17:34:51.503763+00:00</t>
+  </si>
+  <si>
+    <t>Yusufov Anvar</t>
+  </si>
+  <si>
+    <t>998885310299</t>
+  </si>
+  <si>
+    <t>2022-06-15 17:54:03.507286+00:00</t>
+  </si>
+  <si>
+    <t>Хожиматова севанна</t>
+  </si>
+  <si>
+    <t>998935830012</t>
+  </si>
+  <si>
+    <t>2022-06-16 09:44:48.882101+00:00</t>
+  </si>
+  <si>
+    <t>Ахмедова Мафтуна</t>
+  </si>
+  <si>
+    <t>998995939025</t>
+  </si>
+  <si>
+    <t>2022-06-20 05:43:03.524417+00:00</t>
+  </si>
+  <si>
+    <t>Habibulloh Salimov</t>
+  </si>
+  <si>
+    <t>+998333907313</t>
+  </si>
+  <si>
+    <t>2022-06-24 23:46:05.957012+00:00</t>
+  </si>
+  <si>
+    <t>Nematjon Shahobiddinov</t>
+  </si>
+  <si>
+    <t>998934960624</t>
+  </si>
+  <si>
+    <t>2022-07-02 10:26:55.854474+00:00</t>
+  </si>
+  <si>
+    <t>s dfg</t>
   </si>
   <si>
     <t>+998950657313</t>
   </si>
   <si>
-    <t>Mirhojiddin Mamadaliyev</t>
-  </si>
-  <si>
-    <t>998905665711</t>
-  </si>
-  <si>
-    <t>Farg'ona</t>
-  </si>
-  <si>
-    <t>Islom Ziyadullayev</t>
-  </si>
-  <si>
-    <t>+998944675699</t>
-  </si>
-  <si>
-    <t>Toshkent shahri</t>
-  </si>
-  <si>
-    <t>Anora Fayziyeva</t>
-  </si>
-  <si>
-    <t>998907176887</t>
-  </si>
-  <si>
-    <t>Buxoro</t>
-  </si>
-  <si>
-    <t>2022-06-11 12:41:45.937518+00:00</t>
-  </si>
-  <si>
-    <t>+998907176887</t>
-  </si>
-  <si>
-    <t>2022-06-11 14:02:27.015286+00:00</t>
-  </si>
-  <si>
-    <t>Aydos Duysenbaev</t>
-  </si>
-  <si>
-    <t>998933717540</t>
-  </si>
-  <si>
-    <t>Qoraqalpog'iston Respublikasi</t>
-  </si>
-  <si>
-    <t>2022-06-11 19:36:38.192686+00:00</t>
-  </si>
-  <si>
-    <t>firdavsiy abdullajonov</t>
-  </si>
-  <si>
-    <t>998998931903</t>
-  </si>
-  <si>
-    <t>Namangan</t>
-  </si>
-  <si>
-    <t>2022-06-12 01:57:17.663618+00:00</t>
-  </si>
-  <si>
-    <t>Asadbek Abdujabborov</t>
-  </si>
-  <si>
-    <t>998941777235</t>
-  </si>
-  <si>
-    <t>2022-06-12 02:32:28.430459+00:00</t>
-  </si>
-  <si>
-    <t>Mohinur Qo'ziboyeva</t>
-  </si>
-  <si>
-    <t>+998999686642</t>
-  </si>
-  <si>
-    <t>2022-06-12 03:39:53.968784+00:00</t>
-  </si>
-  <si>
-    <t>Ilxom Nazarov</t>
-  </si>
-  <si>
-    <t>998881299901</t>
-  </si>
-  <si>
-    <t>Jizzax</t>
-  </si>
-  <si>
-    <t>2022-06-12 03:40:31.184200+00:00</t>
-  </si>
-  <si>
-    <t>Hamdam Qobulov</t>
-  </si>
-  <si>
-    <t>998993170030</t>
-  </si>
-  <si>
-    <t>2022-06-12 04:48:20.711168+00:00</t>
-  </si>
-  <si>
-    <t>avazbek</t>
-  </si>
-  <si>
-    <t>+998913392949</t>
-  </si>
-  <si>
-    <t>2022-06-12 05:42:42.830127+00:00</t>
-  </si>
-  <si>
-    <t>Abduvali Shomuratov</t>
-  </si>
-  <si>
-    <t>+998944647484</t>
-  </si>
-  <si>
-    <t>Surxondaryo</t>
-  </si>
-  <si>
-    <t>2022-06-12 05:51:49.950101+00:00</t>
-  </si>
-  <si>
-    <t>Umidjon Abdullayev</t>
-  </si>
-  <si>
-    <t>+998979096323</t>
-  </si>
-  <si>
-    <t>Sirdaryo</t>
-  </si>
-  <si>
-    <t>2022-06-12 06:46:56.829960+00:00</t>
-  </si>
-  <si>
-    <t>Raxmatullaeva Hulkar</t>
-  </si>
-  <si>
-    <t>998990791315</t>
-  </si>
-  <si>
-    <t>Qashqadaryo</t>
-  </si>
-  <si>
-    <t>2022-06-12 08:15:27.291987+00:00</t>
-  </si>
-  <si>
-    <t>Abdulloh Yuldashev</t>
-  </si>
-  <si>
-    <t>998902001513</t>
-  </si>
-  <si>
-    <t>2022-06-12 08:28:22.228818+00:00</t>
-  </si>
-  <si>
-    <t>Buriyev Eldor</t>
-  </si>
-  <si>
-    <t>998909218746</t>
-  </si>
-  <si>
-    <t>2022-06-12 09:33:40.142080+00:00</t>
-  </si>
-  <si>
-    <t>Kalibri education</t>
-  </si>
-  <si>
-    <t>998974220028</t>
-  </si>
-  <si>
-    <t>2022-06-12 10:33:08.632130+00:00</t>
-  </si>
-  <si>
-    <t>Imomova Mokhizoda</t>
-  </si>
-  <si>
-    <t>998900158502</t>
-  </si>
-  <si>
-    <t>2022-06-12 13:42:27.523082+00:00</t>
-  </si>
-  <si>
-    <t>Karimboy Yuldoshov</t>
-  </si>
-  <si>
-    <t>998944854969</t>
-  </si>
-  <si>
-    <t>2022-06-12 14:33:15.757913+00:00</t>
-  </si>
-  <si>
-    <t>Yuldasheva Yulduz</t>
-  </si>
-  <si>
-    <t>998914039668</t>
-  </si>
-  <si>
-    <t>2022-06-12 15:00:50.574051+00:00</t>
-  </si>
-  <si>
-    <t>Sardor Narimanov</t>
-  </si>
-  <si>
-    <t>+998944127070</t>
-  </si>
-  <si>
-    <t>Toshkent viloyati</t>
-  </si>
-  <si>
-    <t>2022-06-12 15:02:08.584404+00:00</t>
-  </si>
-  <si>
-    <t>Doniyor Farhodov</t>
-  </si>
-  <si>
-    <t>+998931386123</t>
-  </si>
-  <si>
-    <t>2022-06-13 09:33:41.850442+00:00</t>
-  </si>
-  <si>
-    <t>Shonazar Khasanov</t>
-  </si>
-  <si>
-    <t>998330344000</t>
-  </si>
-  <si>
-    <t>2022-06-13 12:53:03.896279+00:00</t>
-  </si>
-  <si>
-    <t>Mirayub Giyosov</t>
-  </si>
-  <si>
-    <t>998977053105</t>
-  </si>
-  <si>
-    <t>2022-06-13 13:05:04.966787+00:00</t>
-  </si>
-  <si>
-    <t>Sobirov Abdubori Abduqodirovich</t>
-  </si>
-  <si>
-    <t>998903728278</t>
-  </si>
-  <si>
-    <t>2022-06-13 13:40:12.395763+00:00</t>
-  </si>
-  <si>
-    <t>Sayfiyev Ramziddin</t>
-  </si>
-  <si>
-    <t>998935589503</t>
-  </si>
-  <si>
-    <t>2022-06-14 11:11:58.477155+00:00</t>
-  </si>
-  <si>
-    <t>Жураев Хамробек</t>
-  </si>
-  <si>
-    <t>998908806880</t>
-  </si>
-  <si>
-    <t>2022-06-14 14:06:30.213676+00:00</t>
-  </si>
-  <si>
-    <t>Shoxjaxon narzikulov</t>
-  </si>
-  <si>
-    <t>998979109007</t>
-  </si>
-  <si>
-    <t>Samarqand</t>
-  </si>
-  <si>
-    <t>2022-06-14 16:33:23.626611+00:00</t>
-  </si>
-  <si>
-    <t>Sardor</t>
-  </si>
-  <si>
-    <t>+998935944073</t>
-  </si>
-  <si>
-    <t>2022-06-14 17:57:20.036379+00:00</t>
-  </si>
-  <si>
-    <t>Rikhsiddinov Yodgor</t>
-  </si>
-  <si>
-    <t>998332713417</t>
-  </si>
-  <si>
-    <t>2022-06-15 17:34:51.503763+00:00</t>
-  </si>
-  <si>
-    <t>Yusufov Anvar</t>
-  </si>
-  <si>
-    <t>998885310299</t>
-  </si>
-  <si>
-    <t>2022-06-15 17:54:03.507286+00:00</t>
-  </si>
-  <si>
-    <t>Хожиматова севанна</t>
-  </si>
-  <si>
-    <t>998935830012</t>
-  </si>
-  <si>
-    <t>2022-06-16 09:44:48.882101+00:00</t>
-  </si>
-  <si>
-    <t>Ахмедова Мафтуна</t>
-  </si>
-  <si>
-    <t>998995939025</t>
-  </si>
-  <si>
-    <t>2022-06-20 05:43:03.524417+00:00</t>
-  </si>
-  <si>
-    <t>Habibulloh Salimov</t>
-  </si>
-  <si>
-    <t>+998333907313</t>
-  </si>
-  <si>
-    <t>2022-06-24 23:46:05.957012+00:00</t>
-  </si>
-  <si>
-    <t>Nematjon Shahobiddinov</t>
-  </si>
-  <si>
-    <t>998934960624</t>
-  </si>
-  <si>
-    <t>2022-07-02 10:26:55.854474+00:00</t>
+    <t>2022-07-06 18:02:11.485476+00:00</t>
+  </si>
+  <si>
+    <t>Jumayev Boburbek</t>
+  </si>
+  <si>
+    <t>998973035755</t>
+  </si>
+  <si>
+    <t>2022-07-09 15:31:01.989661+00:00</t>
+  </si>
+  <si>
+    <t>Sultonov Farhod</t>
+  </si>
+  <si>
+    <t>998996356415</t>
+  </si>
+  <si>
+    <t>2022-07-11 16:58:55.214988+00:00</t>
   </si>
 </sst>
 </file>
@@ -738,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -826,10 +847,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5">
-        <v>1025888307</v>
+        <v>691348344</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -838,7 +859,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -846,19 +867,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6">
-        <v>691348344</v>
+        <v>620148455</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -866,39 +887,39 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
-        <v>620148455</v>
+        <v>1635569047</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>1635569047</v>
+        <v>1275202876</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -906,642 +927,682 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
-        <v>1275202876</v>
+        <v>1944466986</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10">
-        <v>1944466986</v>
+        <v>916582906</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11">
-        <v>916582906</v>
+        <v>1038499310</v>
       </c>
       <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12">
-        <v>1038499310</v>
+        <v>1021897530</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>1784308662</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="B13">
-        <v>1021897530</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14">
-        <v>1784308662</v>
+        <v>5029051566</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>5029051566</v>
+        <v>1999806903</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16">
-        <v>1999806903</v>
+        <v>1353906775</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17">
-        <v>1353906775</v>
+        <v>5163468879</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18">
-        <v>5163468879</v>
+        <v>5461728760</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19">
-        <v>5461728760</v>
+        <v>1707554893</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20">
-        <v>1707554893</v>
+        <v>841998766</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21">
-        <v>841998766</v>
+        <v>1101058609</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22">
-        <v>1101058609</v>
+        <v>1298392207</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23">
-        <v>1298392207</v>
+        <v>5349232356</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24">
-        <v>5349232356</v>
+        <v>1410396938</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25">
-        <v>1410396938</v>
+        <v>553050939</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26">
-        <v>553050939</v>
+        <v>1987928063</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27">
-        <v>1987928063</v>
+        <v>1323666637</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28">
-        <v>1323666637</v>
+        <v>514528684</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29">
-        <v>514528684</v>
+        <v>1958534085</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30">
-        <v>1958534085</v>
+        <v>646912598</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
+        <v>63</v>
+      </c>
+      <c r="B31">
+        <v>1916769209</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" t="s">
         <v>62</v>
       </c>
-      <c r="B31">
-        <v>646912598</v>
-      </c>
-      <c r="C31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32">
-        <v>1916769209</v>
+        <v>1551435907</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33">
-        <v>1551435907</v>
+        <v>1930332026</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34">
-        <v>1930332026</v>
+        <v>1434627873</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35">
-        <v>1434627873</v>
+        <v>2019568970</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36">
-        <v>2019568970</v>
+        <v>5254275298</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37">
-        <v>5254275298</v>
+        <v>1545334373</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38">
-        <v>1545334373</v>
+        <v>1566043082</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B39">
-        <v>1566043082</v>
+        <v>561773609</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B40">
-        <v>561773609</v>
+        <v>1025888307</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>79</v>
+      </c>
+      <c r="B41">
+        <v>972843287</v>
+      </c>
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>80</v>
+      </c>
+      <c r="B42">
+        <v>1342719933</v>
+      </c>
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
